--- a/backend/data/members_template.xlsx
+++ b/backend/data/members_template.xlsx
@@ -1,42 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amami\GitHub\MHM\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224EF430-AB68-4D55-A718-67B27E4D8E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Membres" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+  <si>
+    <t>=== INSTRUCTIONS D'UTILISATION ===</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1. Remplissez les données à partir de la ligne 4 (après les exemples)</t>
+  </si>
+  <si>
+    <t>2. Les colonnes avec * sont OBLIGATOIRES</t>
+  </si>
+  <si>
+    <t>3. Formats attendus:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - dateOfBirth: YYYY-MM-DD (ex: 1990-05-15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - email: format email valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - memberType: regular, student, family, honorary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - status: active, inactive, pending, suspended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - country: nom du pays (défaut: France)</t>
+  </si>
+  <si>
+    <t>4. Colonnes obligatoires (*):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   firstName*, lastName*, dateOfBirth*, email*, phone*</t>
+  </si>
+  <si>
+    <t>5. Colonnes optionnelles:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   street, city, postalCode, country, occupation, interests,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   emergencyContactName, emergencyContactPhone,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   emergencyContactRelationship, notes</t>
+  </si>
+  <si>
+    <t>6. Une fois rempli, exécutez:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   npm run import:members ./data/your_file.xlsx</t>
+  </si>
+  <si>
+    <t>=== NE PAS MODIFIER LES LIGNES CI-DESSUS ===</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>memberType</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>interests</t>
+  </si>
+  <si>
+    <t>emergencyContactName</t>
+  </si>
+  <si>
+    <t>emergencyContactPhone</t>
+  </si>
+  <si>
+    <t>emergencyContactRelationship</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>1990-05-15</t>
+  </si>
+  <si>
+    <t>jean.dupont@example.com</t>
+  </si>
+  <si>
+    <t>+33 6 12 34 56 78</t>
+  </si>
+  <si>
+    <t>123 Rue de la Paix</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Ingénieur</t>
+  </si>
+  <si>
+    <t>Technologie, Sport</t>
+  </si>
+  <si>
+    <t>Marie Dupont</t>
+  </si>
+  <si>
+    <t>+33 6 98 76 54 32</t>
+  </si>
+  <si>
+    <t>Épouse</t>
+  </si>
+  <si>
+    <t>Membre actif</t>
+  </si>
+  <si>
+    <t>1995-08-22</t>
+  </si>
+  <si>
+    <t>sophie.martin@example.com</t>
+  </si>
+  <si>
+    <t>+33 6 23 45 67 89</t>
+  </si>
+  <si>
+    <t>45 Avenue des Champs</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Étudiante</t>
+  </si>
+  <si>
+    <t>Culture, Voyages</t>
+  </si>
+  <si>
+    <t>Pierre Martin</t>
+  </si>
+  <si>
+    <t>+33 6 11 22 33 44</t>
+  </si>
+  <si>
+    <t>Père</t>
+  </si>
+  <si>
+    <t>En attente de validation</t>
+  </si>
+  <si>
+    <t>Valohery</t>
+  </si>
+  <si>
+    <t>Fanambinantsoa</t>
+  </si>
+  <si>
+    <t>Ramanantsoa</t>
+  </si>
+  <si>
+    <t>Laza</t>
+  </si>
+  <si>
+    <t>Mahajanga</t>
+  </si>
+  <si>
+    <t>Madagasikara</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,13 +258,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,322 +597,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>=== INSTRUCTIONS D'UTILISATION ===</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1. Remplissez les données à partir de la ligne 4 (après les exemples)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2. Les colonnes avec * sont OBLIGATOIRES</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3. Formats attendus:</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve">   - dateOfBirth: YYYY-MM-DD (ex: 1990-05-15)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve">   - email: format email valide</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve">   - memberType: regular, student, family, honorary</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve">   - status: active, inactive, pending, suspended</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve">   - country: nom du pays (défaut: France)</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>4. Colonnes obligatoires (*):</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v xml:space="preserve">   firstName*, lastName*, dateOfBirth*, email*, phone*</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>5. Colonnes optionnelles:</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v xml:space="preserve">   street, city, postalCode, country, occupation, interests,</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v xml:space="preserve">   emergencyContactName, emergencyContactPhone,</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v xml:space="preserve">   emergencyContactRelationship, notes</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>6. Une fois rempli, exécutez:</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v xml:space="preserve">   npm run import:members ./data/your_file.xlsx</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>=== NE PAS MODIFIER LES LIGNES CI-DESSUS ===</v>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A23"/>
+    <ignoredError sqref="A1:A23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="30.83203125" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="40.83203125" customWidth="1"/>
+    <col min="1" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" customWidth="1"/>
+    <col min="6" max="6" width="30.796875" customWidth="1"/>
+    <col min="7" max="7" width="20.796875" customWidth="1"/>
+    <col min="8" max="10" width="12.796875" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" customWidth="1"/>
+    <col min="12" max="12" width="20.796875" customWidth="1"/>
+    <col min="13" max="13" width="30.796875" customWidth="1"/>
+    <col min="14" max="14" width="20.796875" customWidth="1"/>
+    <col min="15" max="15" width="18.796875" customWidth="1"/>
+    <col min="16" max="16" width="15.796875" customWidth="1"/>
+    <col min="17" max="17" width="40.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>firstName</v>
-      </c>
-      <c r="B1" t="str">
-        <v>lastName</v>
-      </c>
-      <c r="C1" t="str">
-        <v>dateOfBirth</v>
-      </c>
-      <c r="D1" t="str">
-        <v>email</v>
-      </c>
-      <c r="E1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="F1" t="str">
-        <v>street</v>
-      </c>
-      <c r="G1" t="str">
-        <v>city</v>
-      </c>
-      <c r="H1" t="str">
-        <v>postalCode</v>
-      </c>
-      <c r="I1" t="str">
-        <v>country</v>
-      </c>
-      <c r="J1" t="str">
-        <v>memberType</v>
-      </c>
-      <c r="K1" t="str">
-        <v>status</v>
-      </c>
-      <c r="L1" t="str">
-        <v>occupation</v>
-      </c>
-      <c r="M1" t="str">
-        <v>interests</v>
-      </c>
-      <c r="N1" t="str">
-        <v>emergencyContactName</v>
-      </c>
-      <c r="O1" t="str">
-        <v>emergencyContactPhone</v>
-      </c>
-      <c r="P1" t="str">
-        <v>emergencyContactRelationship</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Jean</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Dupont</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1990-05-15</v>
-      </c>
-      <c r="D2" t="str">
-        <v>jean.dupont@example.com</v>
-      </c>
-      <c r="E2" t="str">
-        <v>+33 6 12 34 56 78</v>
-      </c>
-      <c r="F2" t="str">
-        <v>123 Rue de la Paix</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Paris</v>
-      </c>
-      <c r="H2" t="str">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
         <v>75001</v>
       </c>
-      <c r="I2" t="str">
-        <v>France</v>
-      </c>
-      <c r="J2" t="str">
-        <v>regular</v>
-      </c>
-      <c r="K2" t="str">
-        <v>active</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Ingénieur</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Technologie, Sport</v>
-      </c>
-      <c r="N2" t="str">
-        <v>Marie Dupont</v>
-      </c>
-      <c r="O2" t="str">
-        <v>+33 6 98 76 54 32</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Épouse</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>Membre actif</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Sophie</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Martin</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1995-08-22</v>
-      </c>
-      <c r="D3" t="str">
-        <v>sophie.martin@example.com</v>
-      </c>
-      <c r="E3" t="str">
-        <v>+33 6 23 45 67 89</v>
-      </c>
-      <c r="F3" t="str">
-        <v>45 Avenue des Champs</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Lyon</v>
-      </c>
-      <c r="H3" t="str">
-        <v>69001</v>
-      </c>
-      <c r="I3" t="str">
-        <v>France</v>
-      </c>
-      <c r="J3" t="str">
-        <v>student</v>
-      </c>
-      <c r="K3" t="str">
-        <v>pending</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Étudiante</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Culture, Voyages</v>
-      </c>
-      <c r="N3" t="str">
-        <v>Pierre Martin</v>
-      </c>
-      <c r="O3" t="str">
-        <v>+33 6 11 22 33 44</v>
-      </c>
-      <c r="P3" t="str">
-        <v>Père</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>En attente de validation</v>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>501</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q3"/>
+    <ignoredError sqref="A1:Q1 C3:F3 C2:F2 J2:Q2 J3 L3:Q3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>